--- a/medicine/Pharmacie/Nancy_Zahniser/Nancy_Zahniser.xlsx
+++ b/medicine/Pharmacie/Nancy_Zahniser/Nancy_Zahniser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nancy Rutledge Zahniser, née le 26 octobre 1948 et morte le 5 mai 2016, est une pharmacologue américaine. Elle a été professeur au Département de Pharmacologie de l'Université du Colorado School of Medicine à Aurora dans le Colorado, où elle a également été doyenne associée pour la formation à la recherche[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nancy Rutledge Zahniser, née le 26 octobre 1948 et morte le 5 mai 2016, est une pharmacologue américaine. Elle a été professeur au Département de Pharmacologie de l'Université du Colorado School of Medicine à Aurora dans le Colorado, où elle a également été doyenne associée pour la formation à la recherche,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nancy Zahniser est née le 26 octobre 1948 à Ann Arbor dans le Michigan[3] et a grandi à Chillicothe, dans l'Ohio[4]. Elle a obtenu un baccalauréat universitaire en chimie au College of Wooster en 1970[5] et par la suite enseigné à la high-school de science pendant un an à Woodstock School à Mussoorie en Inde[5],[4]. Elle a obtenu son Philosophiæ doctor en pharmacologie en 1977 à l'Université de Pittsburgh, avec Israel Hanin comme conseiller.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nancy Zahniser est née le 26 octobre 1948 à Ann Arbor dans le Michigan et a grandi à Chillicothe, dans l'Ohio. Elle a obtenu un baccalauréat universitaire en chimie au College of Wooster en 1970 et par la suite enseigné à la high-school de science pendant un an à Woodstock School à Mussoorie en Inde,. Elle a obtenu son Philosophiæ doctor en pharmacologie en 1977 à l'Université de Pittsburgh, avec Israel Hanin comme conseiller.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recherche de Zahniser concerne le rôle de dopamine dans le cerveau, en particulier en relation avec les troubles de dépendance[4]. Elle a publié plus de 150 articles[4], qui ont été cités plus de 6200 fois, lui donnant un indice h de 44[6].
-En 2014, elle a reçu le Prix de l'Excellence en Pharmacologie/Toxicologie de la Fonddation PhRMA pour ses contributions à la compréhension de la régulation de la dopamine dans la dépendance à la drogue[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche de Zahniser concerne le rôle de dopamine dans le cerveau, en particulier en relation avec les troubles de dépendance. Elle a publié plus de 150 articles, qui ont été cités plus de 6200 fois, lui donnant un indice h de 44.
+En 2014, elle a reçu le Prix de l'Excellence en Pharmacologie/Toxicologie de la Fonddation PhRMA pour ses contributions à la compréhension de la régulation de la dopamine dans la dépendance à la drogue.
 </t>
         </is>
       </c>
